--- a/data/trans_orig/P79A9_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A9_2023-Estudios-trans_orig.xlsx
@@ -899,7 +899,7 @@
         <v>2544</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>4029</v>
@@ -908,7 +908,7 @@
         <v>0.6315043445240838</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1993952398128047</v>
+        <v>0.1989218990757115</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>2544</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>4029</v>
@@ -929,7 +929,7 @@
         <v>0.6315043445240838</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1993952398128047</v>
+        <v>0.1989218990757115</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3228</v>
+        <v>4029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3684956554759163</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8010781009242885</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3228</v>
+        <v>4029</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3684956554759163</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8010781009242885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1233,16 +1233,16 @@
         <v>3408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>942</v>
+        <v>1035</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>4893</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.69655190417556</v>
+        <v>0.6965519041755601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1924279833938676</v>
+        <v>0.2115951577603637</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1254,16 +1254,16 @@
         <v>4538</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>6023</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.753466464290401</v>
+        <v>0.7534664642904011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3011347511491008</v>
+        <v>0.3018938250321394</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3721</v>
+        <v>3862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3034480958244399</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7604087175512233</v>
+        <v>0.7891961357004843</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.246533535709599</v>
+        <v>0.2465335357095991</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6978395473063803</v>
+        <v>0.6981061749678605</v>
       </c>
     </row>
     <row r="15">
